--- a/RACI-matrix.xlsx
+++ b/RACI-matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\LMCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB37C4BE-745B-42E3-AD66-3670B2DD8E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D645DC3-E876-42C0-8549-1F851E4FE22C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="2430" windowWidth="15465" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19740" yWindow="2040" windowWidth="15465" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="2" r:id="rId1"/>
@@ -1230,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
